--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="204">
   <si>
     <t>Version</t>
   </si>
@@ -933,6 +933,12 @@
   </si>
   <si>
     <t>All item add condition: VID1, VID0(Support I2C I/O and Function Generator)</t>
+  </si>
+  <si>
+    <t>Add condition: Spec Cursor ON, Spec Vout Max, Spec Vout Min</t>
+  </si>
+  <si>
+    <t>7, 10, 16, 17</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2260,6 +2266,18 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="206">
   <si>
     <t>Version</t>
   </si>
@@ -939,6 +939,12 @@
   </si>
   <si>
     <t>7, 10, 16, 17</t>
+  </si>
+  <si>
+    <t>Delete condition: Index</t>
+  </si>
+  <si>
+    <t>1~16</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2278,6 +2284,18 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
   <si>
     <t>Version</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>1~16</t>
+  </si>
+  <si>
+    <t>2~12</t>
+  </si>
+  <si>
+    <t>Add condition: Cx_Offset (x = 1 to 8)</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:F99"/>
+      <selection activeCell="C100" sqref="C100:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2296,6 +2302,18 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
   <si>
     <t>Version</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Add condition: Cx_Offset (x = 1 to 8)</t>
+  </si>
+  <si>
+    <t>Check the column name and number before load the condition file</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100:F100"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2317,16 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
   <si>
     <t>Version</t>
   </si>
@@ -954,6 +954,12 @@
   </si>
   <si>
     <t>Check the column name and number before load the condition file</t>
+  </si>
+  <si>
+    <t>Add result: VID1, VID0</t>
+  </si>
+  <si>
+    <t>1~15, 17</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2327,6 +2333,18 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
   <si>
     <t>Version</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>1~15, 17</t>
+  </si>
+  <si>
+    <t>Add temp result</t>
   </si>
 </sst>
 </file>
@@ -1330,9 +1333,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -2345,6 +2348,16 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
   <si>
     <t>Version</t>
   </si>
@@ -963,6 +963,14 @@
   </si>
   <si>
     <t>Add temp result</t>
+  </si>
+  <si>
+    <t>Add condition: Max Current</t>
+  </si>
+  <si>
+    <t>Add function: 
+Save, Save as, Load file can be use other path
+Send the test report to email</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,6 +1060,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2281,72 +2295,72 @@
       <c r="B97" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="C97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="C98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="C99" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11" t="s">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11" t="s">
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11" t="s">
+      <c r="D101" s="12"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2358,6 +2372,28 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="10">
+        <v>17</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>Version</t>
   </si>
@@ -971,6 +971,9 @@
     <t>Add function: 
 Save, Save as, Load file can be use other path
 Send the test report to email</t>
+  </si>
+  <si>
+    <t>Result add: Font will be changed if data over spec</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2394,6 +2397,18 @@
       <c r="E105" s="11"/>
       <c r="F105" s="13" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.4.1\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.0\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
   <si>
     <t>Version</t>
   </si>
@@ -975,16 +975,23 @@
   <si>
     <t>Result add: Font will be changed if data over spec</t>
   </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add an information window of email before starting the test.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1001,6 +1008,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1072,7 +1086,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1350,23 +1364,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1389,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="173.25">
       <c r="A2" s="6">
         <v>44502</v>
       </c>
@@ -1406,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="47.25">
       <c r="A3" s="6">
         <v>44509</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="47.25">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.5">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>44517</v>
       </c>
@@ -1573,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="31.5">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="31.5">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1620,15 +1634,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="F19" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="31.5">
       <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1636,7 +1650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1644,37 +1658,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="F22" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="F23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="F25" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="F26" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="F27" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
@@ -1688,22 +1702,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="F29" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="F30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="47.25">
       <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1711,17 +1725,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="31.5">
       <c r="F33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="31.5">
       <c r="F34" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" ht="31.5">
       <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
@@ -1729,24 +1743,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="31.5">
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="31.5">
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="31.5">
       <c r="F38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" ht="47.25">
       <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1754,12 +1768,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" ht="31.5">
       <c r="F40" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" ht="31.5">
       <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6">
       <c r="C42" s="1" t="s">
         <v>88</v>
       </c>
@@ -1775,12 +1789,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6">
       <c r="F43" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" ht="31.5">
       <c r="E44" s="2" t="s">
         <v>91</v>
       </c>
@@ -1788,7 +1802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" ht="31.5">
       <c r="E45" s="2" t="s">
         <v>93</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6">
       <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
@@ -1807,17 +1821,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6">
       <c r="F47" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" ht="31.5">
       <c r="F48" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
@@ -1828,7 +1842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="E50" s="3" t="s">
         <v>102</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="C51" s="1" t="s">
         <v>104</v>
       </c>
@@ -1847,7 +1861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
@@ -1880,7 +1894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="C55" s="1" t="s">
         <v>104</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="C56" s="1" t="s">
         <v>104</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="D57" s="1" t="s">
         <v>105</v>
       </c>
@@ -1919,7 +1933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="D58" s="1">
         <v>10</v>
       </c>
@@ -1930,7 +1944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="D59" s="1">
         <v>10</v>
       </c>
@@ -1941,7 +1955,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="C61" s="1" t="s">
         <v>12</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="C62" s="1" t="s">
         <v>88</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="C63" s="1" t="s">
         <v>128</v>
       </c>
@@ -1979,7 +1993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="C64" s="1" t="s">
         <v>130</v>
       </c>
@@ -1987,7 +2001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
         <v>137</v>
       </c>
@@ -1995,7 +2009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +2017,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="C71" s="1" t="s">
         <v>130</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
@@ -2054,7 +2068,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73" s="1" t="s">
         <v>153</v>
       </c>
@@ -2068,7 +2082,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74" s="1" t="s">
         <v>156</v>
       </c>
@@ -2082,7 +2096,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="C75" s="1" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="C76" s="1" t="s">
         <v>12</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2115,7 +2129,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="C78" s="1" t="s">
         <v>68</v>
       </c>
@@ -2126,7 +2140,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="C79" s="1" t="s">
         <v>68</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80" s="1" t="s">
         <v>171</v>
       </c>
@@ -2148,17 +2162,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="F81" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="F82" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="C83" s="1" t="s">
         <v>68</v>
       </c>
@@ -2172,7 +2186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="D84" s="1">
         <v>11</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="31.5">
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="31.5">
       <c r="C86" s="1" t="s">
         <v>180</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87" s="1" t="s">
         <v>182</v>
       </c>
@@ -2207,7 +2221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" ht="31.5">
       <c r="C88" s="1" t="s">
         <v>128</v>
       </c>
@@ -2215,7 +2229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="31.5">
       <c r="C89" s="1" t="s">
         <v>68</v>
       </c>
@@ -2226,7 +2240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="C90" s="1" t="s">
         <v>68</v>
       </c>
@@ -2240,12 +2254,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="F91" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" ht="31.5">
       <c r="C92" s="1" t="s">
         <v>12</v>
       </c>
@@ -2256,12 +2270,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="F93" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94" s="1" t="s">
         <v>193</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="31.5">
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
@@ -2294,7 +2308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6">
       <c r="B97" s="10" t="s">
         <v>200</v>
       </c>
@@ -2309,7 +2323,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6">
       <c r="C98" s="12" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2335,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6">
       <c r="C99" s="12" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6">
       <c r="C100" s="12" t="s">
         <v>68</v>
       </c>
@@ -2345,7 +2359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6">
       <c r="C101" s="12" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2369,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6">
       <c r="C102" s="12" t="s">
         <v>12</v>
       </c>
@@ -2367,7 +2381,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6">
       <c r="C103" s="10" t="s">
         <v>14</v>
       </c>
@@ -2377,7 +2391,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6">
       <c r="C104" s="10" t="s">
         <v>12</v>
       </c>
@@ -2389,7 +2403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" ht="47.25">
       <c r="C105" s="10" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6">
       <c r="C106" s="10" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2425,18 @@
         <v>214</v>
       </c>
     </row>
+    <row r="107" spans="2:6">
+      <c r="C107" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2425,16 +2450,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="78.75">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2465,7 +2490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2473,7 +2498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2482,7 +2507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,21 +2518,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -2518,24 +2543,25 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="4"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="E13" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2548,16 +2574,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -2608,7 +2634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -2619,17 +2645,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="4"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="E7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2642,16 +2669,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2685,13 +2712,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,12 +2732,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="E5" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -2727,10 +2754,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="E7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2743,16 +2771,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,13 +2812,13 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="3" t="s">
         <v>146</v>
       </c>
@@ -2798,12 +2826,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="E5" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -2817,10 +2845,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="E7" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2833,13 +2862,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -2874,6 +2903,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2886,14 +2916,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="49.5">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -2924,10 +2954,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="E3" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2938,8 +2969,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.0\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.2\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="222">
   <si>
     <t>Version</t>
   </si>
@@ -981,6 +981,27 @@
   </si>
   <si>
     <t>Add an information window of email before starting the test.</t>
+  </si>
+  <si>
+    <t>v0.5.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instrument control - oscilloscope
+User can use "Ctrl+C" to copy image.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.5.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug fixed: Send email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1043,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,9 +1102,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1364,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2308,8 +2330,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="10" t="s">
+    <row r="97" spans="1:7" s="14" customFormat="1">
+      <c r="A97" s="13"/>
+      <c r="B97" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -2322,8 +2345,11 @@
       <c r="F97" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="98" spans="2:6">
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1">
+      <c r="A98" s="13"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="12" t="s">
         <v>12</v>
       </c>
@@ -2334,8 +2360,11 @@
       <c r="F98" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="99" spans="2:6">
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1">
+      <c r="A99" s="13"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="12" t="s">
         <v>12</v>
       </c>
@@ -2346,8 +2375,11 @@
       <c r="F99" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1">
+      <c r="A100" s="13"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="12" t="s">
         <v>68</v>
       </c>
@@ -2358,8 +2390,11 @@
       <c r="F100" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="101" spans="2:6">
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1">
+      <c r="A101" s="13"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="12" t="s">
         <v>14</v>
       </c>
@@ -2368,8 +2403,11 @@
       <c r="F101" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="102" spans="2:6">
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" s="14" customFormat="1">
+      <c r="A102" s="13"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="12" t="s">
         <v>12</v>
       </c>
@@ -2380,59 +2418,99 @@
       <c r="F102" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="C103" s="10" t="s">
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1">
+      <c r="A103" s="13"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11" t="s">
+      <c r="D103" s="12"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="C104" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="10">
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1">
+      <c r="A104" s="13"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="12">
         <v>17</v>
       </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11" t="s">
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" ht="47.25">
-      <c r="C105" s="10" t="s">
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="47.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="13" t="s">
+      <c r="D105" s="12"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="C106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="10" t="s">
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11" t="s">
+      <c r="E106" s="9"/>
+      <c r="F106" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="C107" s="10" t="s">
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1">
+      <c r="A107" s="13"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11" t="s">
+      <c r="D107" s="12"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9" t="s">
         <v>216</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="31.5">
+      <c r="B108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="B109" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.2\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.3\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="225">
   <si>
     <t>Version</t>
   </si>
@@ -1001,6 +1001,18 @@
   </si>
   <si>
     <t>Bug fixed: Send email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.5.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify jitter formula</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1386,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2501,16 +2513,31 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
+      <c r="D109" s="12"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="B110" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" s="10">
+        <v>12</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="226">
   <si>
     <t>Version</t>
   </si>
@@ -1013,6 +1013,10 @@
   </si>
   <si>
     <t>Modify jitter formula</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Ton limit min: 10ns, Toff limit min: 250ns</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1398,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2526,6 +2530,7 @@
       </c>
     </row>
     <row r="110" spans="1:7">
+      <c r="A110" s="13"/>
       <c r="B110" s="10" t="s">
         <v>222</v>
       </c>
@@ -2538,6 +2543,16 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="13"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="228">
   <si>
     <t>Version</t>
   </si>
@@ -1017,6 +1017,14 @@
   </si>
   <si>
     <t>Add Ton limit min: 10ns, Toff limit min: 250ns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch3 can be set the position manually</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1402,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A111"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2553,6 +2561,19 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="10">
+        <v>7</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="229">
   <si>
     <t>Version</t>
   </si>
@@ -1025,6 +1025,10 @@
   </si>
   <si>
     <t>Ch3 can be set the position manually</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lx channel add auto scale</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1410,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2564,15 +2568,25 @@
       </c>
     </row>
     <row r="112" spans="1:7">
+      <c r="A112" s="13"/>
       <c r="B112" s="10"/>
-      <c r="C112" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" s="10">
-        <v>7</v>
-      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="10">
+        <v>7</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
         <v>227</v>
       </c>
     </row>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.3\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.4\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="234">
   <si>
     <t>Version</t>
   </si>
@@ -1029,6 +1029,25 @@
   </si>
   <si>
     <t>Lx channel add auto scale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.5.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8,9,12,13,15,16,17</t>
+  </si>
+  <si>
+    <t>Mode: CCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto select mode CCL or CCM or CCH</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1414,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2543,51 +2562,68 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13"/>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D110" s="10">
-        <v>12</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11" t="s">
+      <c r="D110" s="12">
+        <v>12</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="13"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11" t="s">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="13"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11" t="s">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="10"/>
-      <c r="C113" s="10" t="s">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="12">
         <v>7</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.4\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.5\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="241">
   <si>
     <t>Version</t>
   </si>
@@ -1048,6 +1048,34 @@
   </si>
   <si>
     <t>Auto select mode CCL or CCM or CCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.5.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User can set the measure time of DAQ by burn in time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure time of DAQ is maximum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add model: Chroma_63630_80_60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_Meter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1433,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2610,20 +2638,49 @@
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="9" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="10">
+        <v>8</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="C116" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -1071,11 +1071,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Add model: Chroma_63630_80_60</t>
+    <t>Load_Meter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Load_Meter</t>
+    <t>Users can select the same instrument as DC Load.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2676,11 +2676,11 @@
         <v>238</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="244">
   <si>
     <t>Version</t>
   </si>
@@ -1076,6 +1076,18 @@
   </si>
   <si>
     <t>Users can select the same instrument as DC Load.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration add Iin_L, Iin_H, Icc, Iout_L, Iout_H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration: Iout_H</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1461,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="F117" sqref="C117:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2681,6 +2693,18 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="C117" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="245">
   <si>
     <t>Version</t>
   </si>
@@ -1088,6 +1088,10 @@
   </si>
   <si>
     <t>Calibration: Iout_H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Instrument_Start_up function</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1473,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F117" sqref="C117:F117"/>
+      <selection activeCell="C118" sqref="C118:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2705,6 +2709,18 @@
       </c>
       <c r="F117" s="11" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="C118" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="10">
+        <v>8</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="246">
   <si>
     <t>Version</t>
   </si>
@@ -1092,6 +1092,10 @@
   </si>
   <si>
     <t>Add Instrument_Start_up function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Instrument_Shut_Down function</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1477,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:F118"/>
+      <selection activeCell="F119" sqref="C119:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2721,6 +2725,14 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.5.5\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.6.0\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
   <si>
     <t>Version</t>
   </si>
@@ -1096,6 +1096,22 @@
   </si>
   <si>
     <t>Add Instrument_Shut_Down function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.6.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add IV curve auto test</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1481,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F119" sqref="C119:F119"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2644,7 +2660,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="1:7">
       <c r="B113" s="12"/>
       <c r="C113" s="12" t="s">
         <v>226</v>
@@ -2657,7 +2673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="1:7">
       <c r="B114" s="12" t="s">
         <v>229</v>
       </c>
@@ -2674,66 +2690,95 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="10" t="s">
+    <row r="115" spans="1:7" s="14" customFormat="1">
+      <c r="A115" s="13"/>
+      <c r="B115" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="12">
         <v>8</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="C116" s="10" t="s">
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1">
+      <c r="A116" s="13"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11" t="s">
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="C117" s="10" t="s">
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1">
+      <c r="A117" s="13"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11" t="s">
+      <c r="D117" s="12"/>
+      <c r="E117" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="C118" s="10" t="s">
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1">
+      <c r="A118" s="13"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="12">
         <v>8</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11" t="s">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1">
+      <c r="A119" s="13"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="B120" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F120" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="256">
   <si>
     <t>Version</t>
   </si>
@@ -1112,6 +1112,30 @@
   </si>
   <si>
     <t>Add IV curve auto test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update oscilloscope screen tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add measurement 7: Vout to PG delay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay of enable control is always closed.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,6 +1241,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1497,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2766,6 +2793,7 @@
       <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7">
+      <c r="A120" s="15"/>
       <c r="B120" s="10" t="s">
         <v>246</v>
       </c>
@@ -2779,6 +2807,46 @@
         <v>249</v>
       </c>
       <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="15"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="15"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" s="10">
+        <v>1</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="15"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="10">
+        <v>1</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
   <si>
     <t>Version</t>
   </si>
@@ -1136,6 +1136,14 @@
   </si>
   <si>
     <t>Delay of enable control is always closed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source meter: Update voltage and current on the instrument once</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1524,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+      <selection activeCell="F124" sqref="A124:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2846,6 +2854,18 @@
       </c>
       <c r="F123" s="11" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="15"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="261">
   <si>
     <t>Version</t>
   </si>
@@ -1144,6 +1144,18 @@
   </si>
   <si>
     <t>Source meter: Update voltage and current on the instrument once</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn off all instrument before start to test.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1532,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F124" sqref="A124:F124"/>
+      <selection activeCell="F125" sqref="A125:F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2866,6 +2878,20 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="15"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="265">
   <si>
     <t>Version</t>
   </si>
@@ -1156,6 +1156,22 @@
   </si>
   <si>
     <t>Turn off all instrument before start to test.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source meter: sense current range is set 0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source meter: sense current range is set auto</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1544,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F125" sqref="A125:F125"/>
+      <selection activeCell="F126" sqref="A126:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2892,6 +2908,22 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="15"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="269">
   <si>
     <t>Version</t>
   </si>
@@ -1172,6 +1172,23 @@
   </si>
   <si>
     <t>Source meter: sense current range is set auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add checkbox: Measure_steady_data_checkBox
+Users can measure steady data or not after capturing the waveform.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add 1s delay before Enable control on</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,6 +1296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,17 +1580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F126" sqref="A126:F126"/>
+      <selection activeCell="A127" sqref="A127:F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" style="3" customWidth="1"/>
     <col min="6" max="6" width="74.875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.25" style="3" bestFit="1" customWidth="1"/>
@@ -2924,6 +2944,34 @@
       </c>
       <c r="F126" s="11" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="31.5">
+      <c r="A127" s="15"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="15"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" s="10">
+        <v>9</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.6.0\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.7.0\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="276">
   <si>
     <t>Version</t>
   </si>
@@ -1189,6 +1189,34 @@
   </si>
   <si>
     <t>Add 1s delay before Enable control on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.7.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add measurement, optimize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize response and report</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,9 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:F128"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2849,129 +2874,159 @@
       <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="15"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="13"/>
+      <c r="B120" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F120" s="11"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="15"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11" t="s">
+      <c r="A121" s="13"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="15"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="12">
         <v>1</v>
       </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11" t="s">
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="15"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10" t="s">
+      <c r="A123" s="13"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="12">
         <v>1</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="15"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10" t="s">
+      <c r="A124" s="13"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11" t="s">
+      <c r="D124" s="12"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="15"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10" t="s">
+      <c r="A125" s="13"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11" t="s">
+      <c r="E125" s="9"/>
+      <c r="F125" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="15"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10" t="s">
+      <c r="A126" s="13"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="31.5">
-      <c r="A127" s="15"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10" t="s">
+      <c r="A127" s="13"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="16" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="15"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10" t="s">
+      <c r="A128" s="13"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="12">
         <v>9</v>
       </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11" t="s">
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="15"/>
+      <c r="B129" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="15"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="279">
   <si>
     <t>Version</t>
   </si>
@@ -1217,6 +1217,18 @@
   </si>
   <si>
     <t>Optimize response and report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc current limit: 0.5A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc current limit: 0.35A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1605,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+      <selection activeCell="F131" sqref="A131:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3027,6 +3039,22 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="15"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="282">
   <si>
     <t>Version</t>
   </si>
@@ -1229,6 +1229,18 @@
   </si>
   <si>
     <t>Vcc current limit: 0.35A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1617,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F131" sqref="A131:F131"/>
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3045,7 +3057,7 @@
       <c r="A131" s="15"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>276</v>
@@ -3055,6 +3067,20 @@
       </c>
       <c r="F131" s="11" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="15"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="283">
   <si>
     <t>Version</t>
   </si>
@@ -1243,6 +1243,9 @@
     <t>1~8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Add new test item: Item_18_Iout_Sweep_For_PG_Drop_Test</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,7 +1255,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1272,7 +1275,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1351,7 +1354,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1367,7 +1370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1629,20 +1632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F133" sqref="A133:F133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="1"/>
-    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2038,7 +2041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="31.5">
+    <row r="41" spans="3:6" ht="47.25">
       <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
@@ -3081,6 +3084,20 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="15"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="10">
+        <v>18</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3098,13 +3115,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3222,13 +3239,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3317,13 +3334,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3419,13 +3436,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3510,13 +3527,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.25" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33">
+    <row r="2" spans="1:6" ht="30">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -3564,14 +3581,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.25" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.5">
+    <row r="2" spans="1:6" ht="45">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -3617,7 +3634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto test GUI Version History.xlsx
+++ b/Auto test GUI Version History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.7.0\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rex\Auto test GUI v0.8.0\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="289">
   <si>
     <t>Version</t>
   </si>
@@ -1245,6 +1245,24 @@
   </si>
   <si>
     <t>Add new test item: Item_18_Iout_Sweep_For_PG_Drop_Test</t>
+  </si>
+  <si>
+    <t>v0.8.0</t>
+  </si>
+  <si>
+    <t>measure error</t>
+  </si>
+  <si>
+    <t>fix bugs</t>
+  </si>
+  <si>
+    <t>Chamber</t>
+  </si>
+  <si>
+    <t>Add new library</t>
+  </si>
+  <si>
+    <t>Add Chamber</t>
   </si>
 </sst>
 </file>
@@ -1632,16 +1650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F133" sqref="A133:F133"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F136" sqref="A135:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" style="3" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -3027,77 +3046,121 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="15"/>
-      <c r="B129" s="10" t="s">
+      <c r="A129" s="13"/>
+      <c r="B129" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="15"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10" t="s">
+      <c r="A130" s="13"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11" t="s">
+      <c r="E130" s="9"/>
+      <c r="F130" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="15"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="15"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10" t="s">
+      <c r="A132" s="13"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11" t="s">
+      <c r="E132" s="9"/>
+      <c r="F132" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="15"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10" t="s">
+      <c r="A133" s="13"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="12">
         <v>18</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11" t="s">
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="15"/>
+      <c r="B134" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="10">
+        <v>16</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="15"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="15"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
